--- a/biology/Histoire de la zoologie et de la botanique/Horace_Wesley_Stunkard/Horace_Wesley_Stunkard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Horace_Wesley_Stunkard/Horace_Wesley_Stunkard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Horace Wesley Stunkard (né le 23 août 1889 à Monmouth, dans l'Iowa ; mort le 10 septembre 1989 à Falmouth, dans le Massachusetts) est un parasitologiste[1] américain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Horace Wesley Stunkard (né le 23 août 1889 à Monmouth, dans l'Iowa ; mort le 10 septembre 1989 à Falmouth, dans le Massachusetts) est un parasitologiste américain.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Horace W. Stunkard, "The Life-History and Systematic Relations of the Mesozoa", The Quarterly Review of Biology, Vol.29, No.3, September 1954, p. 230-244. JSTOR:2815667
 (en) Horace W. Stunkard, "Clarification of Taxonomy in the Mesozoa", Systematic Zoology, Vol.21, No.2, June 1972, p. 210-214. DOI 10.1093/sysbio/21.2.210 JSTOR:2412290</t>
